--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560350.0121263971</v>
+        <v>485692.2050554622</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009819</v>
+        <v>406463.2981009823</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>9.324448008424257</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>53.24673895424847</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>40.67087089223143</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,23 +1132,23 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1189,13 +1189,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>142.7106847174767</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>90.50278177497621</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,49 +1387,49 @@
         <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="V11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>222.4795457699687</v>
-      </c>
-      <c r="U11" t="n">
-        <v>155.8903435161421</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>147.3452674905975</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>78.20395479068296</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.46550985000072</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>248.6175875691566</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
         <v>330.8786841952548</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>97.14353343492368</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>99.22222288342283</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>30.3740746303243</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1703,7 +1703,7 @@
         <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
-        <v>96.64147812988034</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826718</v>
+        <v>72.27434132826713</v>
       </c>
       <c r="S15" t="n">
         <v>163.3413660663108</v>
@@ -1745,7 +1745,7 @@
         <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91.03914902325975</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6144703808229</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153678</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>131.2347923162858</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>73.52907136089584</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U18" t="n">
         <v>225.8879277888686</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>25.20874520428423</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>126.9458036167327</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>53.06513659042528</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.5310119231965</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>80.9734750049406</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2374,19 +2374,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>201.5761525223398</v>
       </c>
       <c r="V23" t="n">
-        <v>78.8820879780243</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.31785343913977</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>230.2634979541055</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>76.15598969958256</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>93.67762975589535</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2575,7 +2575,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.9672255833418</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>19.9454764957513</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>190.2713935802968</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>143.273549507671</v>
       </c>
       <c r="F32" t="n">
-        <v>376.1848636439235</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.33263748886699</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D35" t="n">
-        <v>131.3860283451308</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>127.908128543143</v>
+        <v>68.59532161784142</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>3.123481276658028</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -3799,16 +3799,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>327.9428964074126</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3957,13 +3957,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>68.11319564821149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>175.3360952969163</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I45" t="n">
         <v>61.42221998250819</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487.4018176583718</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>487.4018176583718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>487.4018176583718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>487.4018176583718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>487.4018176583718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X2" t="n">
-        <v>487.4018176583718</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y2" t="n">
-        <v>487.4018176583718</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>554.1102621044483</v>
+        <v>742.0572336882969</v>
       </c>
       <c r="C3" t="n">
-        <v>379.6572328233214</v>
+        <v>567.60420440717</v>
       </c>
       <c r="D3" t="n">
-        <v>379.6572328233214</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E3" t="n">
-        <v>379.6572328233214</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>233.1226748502063</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>554.1102621044483</v>
+        <v>910.272570708365</v>
       </c>
     </row>
     <row r="4">
@@ -4482,13 +4482,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>812.6742080953335</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795.8418184905681</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C6" t="n">
-        <v>621.3887892094411</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D6" t="n">
-        <v>472.4543795481899</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E6" t="n">
-        <v>313.2169245427344</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G6" t="n">
         <v>133.4044113554191</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,22 +4825,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V8" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W8" t="n">
         <v>262.7299197543128</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>486.820788837921</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C9" t="n">
-        <v>312.367759556794</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D9" t="n">
-        <v>163.4333498955427</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>872.6402042227814</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>644.4165859591706</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X9" t="n">
-        <v>655.0361258579891</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y9" t="n">
-        <v>655.0361258579891</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>579.9844679696339</v>
       </c>
       <c r="D11" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E11" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F11" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
         <v>22.09252109618844</v>
@@ -5044,19 +5044,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,16 +5065,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>737.4494614202825</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>579.9844679696339</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V11" t="n">
         <v>579.9844679696339</v>
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>355.783005382771</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="C12" t="n">
-        <v>181.329976101644</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="D12" t="n">
-        <v>181.329976101644</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="E12" t="n">
         <v>22.09252109618844</v>
@@ -5120,22 +5120,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L12" t="n">
-        <v>411.954469746149</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M12" t="n">
-        <v>411.954469746149</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288496</v>
+        <v>815.0378848195531</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5144,28 +5144,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="U12" t="n">
-        <v>1104.626054809422</v>
+        <v>406.0782328537872</v>
       </c>
       <c r="V12" t="n">
-        <v>1025.632161081459</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="W12" t="n">
-        <v>771.3948043532578</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="X12" t="n">
-        <v>563.5433041477249</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="Y12" t="n">
-        <v>355.783005382771</v>
+        <v>170.9261246220445</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>35.69404619719927</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
         <v>22.09252109618844</v>
@@ -5226,25 +5226,25 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>741.4250276241512</v>
+        <v>1400.506959699399</v>
       </c>
       <c r="C14" t="n">
-        <v>372.4625106837394</v>
+        <v>1400.506959699399</v>
       </c>
       <c r="D14" t="n">
-        <v>372.4625106837394</v>
+        <v>1042.241261092649</v>
       </c>
       <c r="E14" t="n">
-        <v>372.4625106837394</v>
+        <v>791.1123847601673</v>
       </c>
       <c r="F14" t="n">
-        <v>372.4625106837394</v>
+        <v>791.1123847601673</v>
       </c>
       <c r="G14" t="n">
-        <v>372.4625106837394</v>
+        <v>372.4625106837395</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721941</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721941</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827207</v>
+        <v>96.93923871827224</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977713</v>
+        <v>305.6565612977717</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480073</v>
+        <v>616.865483548008</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640733</v>
+        <v>979.7519185640742</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938974</v>
+        <v>1333.878237938975</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653884</v>
+        <v>1623.082041653886</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250552</v>
+        <v>1832.236414250554</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860972</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860971</v>
+        <v>1813.956096613575</v>
       </c>
       <c r="S14" t="n">
-        <v>1912.080877860971</v>
+        <v>1622.144880531212</v>
       </c>
       <c r="T14" t="n">
-        <v>1912.080877860971</v>
+        <v>1400.506959699399</v>
       </c>
       <c r="U14" t="n">
-        <v>1811.856410301958</v>
+        <v>1400.506959699399</v>
       </c>
       <c r="V14" t="n">
-        <v>1480.793522958387</v>
+        <v>1400.506959699399</v>
       </c>
       <c r="W14" t="n">
-        <v>1128.024867688273</v>
+        <v>1400.506959699399</v>
       </c>
       <c r="X14" t="n">
-        <v>1128.024867688273</v>
+        <v>1400.506959699399</v>
       </c>
       <c r="Y14" t="n">
-        <v>1128.024867688273</v>
+        <v>1400.506959699399</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>607.826947232204</v>
+        <v>540.8901760205313</v>
       </c>
       <c r="C15" t="n">
-        <v>433.373917951077</v>
+        <v>366.4371467394043</v>
       </c>
       <c r="D15" t="n">
-        <v>433.373917951077</v>
+        <v>335.7562632744302</v>
       </c>
       <c r="E15" t="n">
-        <v>274.1364629456215</v>
+        <v>176.5188082689748</v>
       </c>
       <c r="F15" t="n">
-        <v>274.1364629456215</v>
+        <v>176.5188082689748</v>
       </c>
       <c r="G15" t="n">
-        <v>135.8592722338662</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="H15" t="n">
-        <v>38.24161755721941</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721941</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="J15" t="n">
-        <v>38.24161755721941</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="K15" t="n">
-        <v>211.7519900452722</v>
+        <v>235.39351851375</v>
       </c>
       <c r="L15" t="n">
-        <v>538.2514472238802</v>
+        <v>561.8929756923582</v>
       </c>
       <c r="M15" t="n">
-        <v>971.2401354071251</v>
+        <v>829.8444494186638</v>
       </c>
       <c r="N15" t="n">
-        <v>1431.395759155985</v>
+        <v>1290.000073167524</v>
       </c>
       <c r="O15" t="n">
-        <v>1785.932577937</v>
+        <v>1644.53689194854</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.932577937</v>
+        <v>1912.080877860972</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860972</v>
       </c>
       <c r="R15" t="n">
-        <v>1839.076492680903</v>
+        <v>1839.076492680904</v>
       </c>
       <c r="S15" t="n">
-        <v>1674.085213826043</v>
+        <v>1674.085213826045</v>
       </c>
       <c r="T15" t="n">
-        <v>1674.085213826043</v>
+        <v>1674.085213826045</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.89143995096</v>
+        <v>1445.891439950962</v>
       </c>
       <c r="V15" t="n">
-        <v>1445.89143995096</v>
+        <v>1210.73933171922</v>
       </c>
       <c r="W15" t="n">
-        <v>1191.654083222759</v>
+        <v>956.501974991018</v>
       </c>
       <c r="X15" t="n">
-        <v>983.802583017226</v>
+        <v>748.6504747854851</v>
       </c>
       <c r="Y15" t="n">
-        <v>776.0422842522721</v>
+        <v>540.8901760205313</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>459.9924103041391</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="C16" t="n">
-        <v>459.9924103041391</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="D16" t="n">
-        <v>459.9924103041391</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="E16" t="n">
-        <v>459.9924103041391</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="F16" t="n">
-        <v>368.0336739170081</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="G16" t="n">
-        <v>198.726128077793</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24161755721941</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721941</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721941</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727415</v>
+        <v>59.50088325727427</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473016</v>
+        <v>142.2318586473018</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519029</v>
+        <v>239.8491955519032</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922419</v>
+        <v>340.5800267922424</v>
       </c>
       <c r="O16" t="n">
-        <v>417.604957685685</v>
+        <v>417.6049576856856</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041391</v>
+        <v>459.9924103041398</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041391</v>
+        <v>459.9924103041398</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041391</v>
+        <v>459.9924103041398</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041391</v>
+        <v>459.9924103041398</v>
       </c>
       <c r="T16" t="n">
-        <v>459.9924103041391</v>
+        <v>327.4320140250632</v>
       </c>
       <c r="U16" t="n">
-        <v>459.9924103041391</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="V16" t="n">
-        <v>459.9924103041391</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="W16" t="n">
-        <v>459.9924103041391</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="X16" t="n">
-        <v>459.9924103041391</v>
+        <v>38.24161755721945</v>
       </c>
       <c r="Y16" t="n">
-        <v>459.9924103041391</v>
+        <v>38.24161755721945</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224075</v>
@@ -5527,7 +5527,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="18">
@@ -5591,37 +5591,37 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
         <v>2289.884200196743</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>550.5654064942404</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U19" t="n">
-        <v>261.3917961488083</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V19" t="n">
-        <v>261.3917961488083</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>261.3917961488083</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.1194880117298</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C20" t="n">
-        <v>593.1569710713181</v>
+        <v>904.3182872793529</v>
       </c>
       <c r="D20" t="n">
-        <v>593.1569710713181</v>
+        <v>904.3182872793529</v>
       </c>
       <c r="E20" t="n">
-        <v>593.1569710713181</v>
+        <v>518.5300346811086</v>
       </c>
       <c r="F20" t="n">
-        <v>182.1710662817106</v>
+        <v>107.5441298915011</v>
       </c>
       <c r="G20" t="n">
-        <v>182.1710662817106</v>
+        <v>107.5441298915011</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>107.5441298915011</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V20" t="n">
-        <v>2112.324418312743</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W20" t="n">
-        <v>2112.324418312743</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X20" t="n">
-        <v>1738.858660051663</v>
+        <v>2050.019976259698</v>
       </c>
       <c r="Y20" t="n">
-        <v>1348.719328075852</v>
+        <v>1659.880644283886</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961344</v>
@@ -5828,46 +5828,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C22" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D22" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1192.157102157134</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C23" t="n">
-        <v>823.1945852167225</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D23" t="n">
-        <v>464.928886609972</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2048.575150942547</v>
+        <v>2043.695971559857</v>
       </c>
       <c r="V23" t="n">
-        <v>1968.896274197068</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="W23" t="n">
-        <v>1968.896274197068</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="X23" t="n">
-        <v>1968.896274197068</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.756942221256</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="24">
@@ -6050,43 +6050,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572643</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1816.442957727741</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C26" t="n">
-        <v>1816.442957727741</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.177259120991</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036444</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332392</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332392</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>2189.908715988821</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W26" t="n">
-        <v>2189.908715988821</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X26" t="n">
-        <v>1816.442957727741</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y26" t="n">
-        <v>1816.442957727741</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6305,49 +6305,49 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6411,16 +6411,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
         <v>53.94298182036444</v>
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.054803223514</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="C29" t="n">
-        <v>1513.092286283102</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.680947310029</v>
+        <v>485.0758325652764</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117851</v>
+        <v>485.0758325652764</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>74.0899277756688</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>74.0899277756688</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>74.0899277756688</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287635</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y29" t="n">
-        <v>2268.654643287635</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641985</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6569,16 +6569,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>308.6274700262513</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="D32" t="n">
-        <v>819.7159451700466</v>
+        <v>1090.310339657335</v>
       </c>
       <c r="E32" t="n">
-        <v>433.9276925718023</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224075</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757142</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.54400078133</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6785,37 +6785,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C34" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D34" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E34" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F34" t="n">
-        <v>517.0200655508536</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G34" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T34" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U34" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V34" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W34" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X34" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y34" t="n">
-        <v>579.9823256406182</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1882.054803223514</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>1882.054803223514</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287635</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>2268.654643287635</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>53.94298182036444</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1307.111989013772</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="C38" t="n">
-        <v>1307.111989013772</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="D38" t="n">
-        <v>1307.111989013772</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="E38" t="n">
-        <v>921.3237364155277</v>
+        <v>868.38971354056</v>
       </c>
       <c r="F38" t="n">
-        <v>510.3378316259202</v>
+        <v>868.38971354056</v>
       </c>
       <c r="G38" t="n">
-        <v>510.3378316259202</v>
+        <v>450.4259054387469</v>
       </c>
       <c r="H38" t="n">
-        <v>183.143111661923</v>
+        <v>123.2311854747497</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W38" t="n">
-        <v>2070.717079250664</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X38" t="n">
-        <v>1697.251320989584</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y38" t="n">
-        <v>1307.111989013772</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7280,25 +7280,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.1711973675267</v>
+        <v>1271.835978902613</v>
       </c>
       <c r="C41" t="n">
-        <v>412.2086804271149</v>
+        <v>1271.835978902613</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036445</v>
+        <v>1271.835978902613</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>886.047726304369</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>475.0618215147614</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>57.09801341294832</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>1838.661061815299</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W41" t="n">
-        <v>1485.892406545185</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X41" t="n">
-        <v>1112.426648284105</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y41" t="n">
-        <v>781.1711973675267</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="42">
@@ -7502,13 +7502,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7605,10 +7605,10 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
         <v>53.94298182036445</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755378</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C44" t="n">
         <v>1208.982837814967</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V44" t="n">
-        <v>2423.485734520778</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W44" t="n">
-        <v>2423.485734520778</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>1208.982837814967</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7751,25 +7751,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7833,19 +7833,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>343.1165921657965</v>
+        <v>571.1061430638138</v>
       </c>
       <c r="U46" t="n">
-        <v>53.94298182036444</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036444</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
         <v>53.94298182036444</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>343.3566784943937</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3661252938572</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>84.40768042974366</v>
+        <v>84.40768042974361</v>
       </c>
       <c r="K15" t="n">
-        <v>240.5849052262376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>299.0008067227883</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>48.21631822333845</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>82.65476256012161</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451769</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>145.0294169142006</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,13 +10904,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>120.0869518323295</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,13 +22640,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.0190691547864</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>152.4359568230559</v>
       </c>
     </row>
     <row r="4">
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>277.0585344134748</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>104.3983415011525</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>114.9113927102481</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,13 +22919,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23077,13 +23077,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>236.9120424101793</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>14.93439573792423</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>109.6619469198454</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,7 +23275,7 @@
         <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>95.44404627266911</v>
+        <v>8.095732519776618</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10.29981296480349</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>154.5966323587423</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23433,10 +23433,10 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>140.0857793320302</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
         <v>88.89425643449839</v>
@@ -23466,7 +23466,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206872</v>
       </c>
       <c r="T13" t="n">
         <v>227.6757534850358</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>133.3127825031052</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492378</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215388</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>152.056281050056</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>117.0709909343145</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>11.25662143303066</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493647</v>
+        <v>73.93425515493644</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>54.38189899967149</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>158.8796654153678</v>
       </c>
       <c r="I16" t="n">
         <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781614</v>
+        <v>66.7399953978161</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802094</v>
+        <v>54.63455058802089</v>
       </c>
       <c r="R16" t="n">
         <v>160.3641786191053</v>
@@ -23706,10 +23706,10 @@
         <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
-        <v>226.33686925111</v>
+        <v>95.10207693482425</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2984925031653</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>296.2020293175732</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23907,13 +23907,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9621436375109</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9769691476245</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>98.86617965443597</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24132,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>82.85718120047541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>144.0616304531437</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>49.64801498594949</v>
       </c>
       <c r="V23" t="n">
-        <v>248.8701704921106</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1031945837915</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853704</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>56.01837628787223</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,16 +24445,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>289.116902071425</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>288.2527403163664</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>21.87414536972213</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>112.7158160373411</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>131.9858397491099</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24891,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>96.01048066168096</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>238.6568205645908</v>
       </c>
       <c r="F32" t="n">
-        <v>30.69118209778793</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>83.08841053406425</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>83.71149628510288</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D35" t="n">
-        <v>223.2970132755522</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25362,19 +25362,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>24.02318770171827</v>
+        <v>83.33599462701983</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.19271039829697</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25602,7 +25602,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>320.7992914876991</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>58.29504224864098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>301.6179050302575</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>210.9018433591373</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482163.6750662233</v>
+        <v>482163.6750662231</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>511495.1365343871</v>
+        <v>511495.1365343872</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>663126.1215785838</v>
+        <v>663126.1215785842</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="14">
@@ -26322,22 +26322,22 @@
         <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>150604.5581398033</v>
+        <v>150604.5581398032</v>
       </c>
       <c r="F2" t="n">
-        <v>198862.5864584593</v>
+        <v>198862.5864584594</v>
       </c>
       <c r="G2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="H2" t="n">
         <v>245779.7185133939</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="J2" t="n">
         <v>245779.7185133938</v>
-      </c>
-      <c r="I2" t="n">
-        <v>245779.718513394</v>
-      </c>
-      <c r="J2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26349,13 +26349,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689327</v>
+        <v>195194.8921689331</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328026</v>
+        <v>185152.089332802</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910641</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213621</v>
+        <v>8757.582995213656</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138667</v>
+        <v>49441.87186138677</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112648</v>
+        <v>47231.86264112631</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="D4" t="n">
         <v>42017.42535589615</v>
@@ -26435,10 +26435,10 @@
         <v>44802.6561755686</v>
       </c>
       <c r="H4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="J4" t="n">
         <v>44802.6561755686</v>
@@ -26450,10 +26450,10 @@
         <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
         <v>44802.65617556861</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221577</v>
+        <v>33615.2806022158</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29831.55399957306</v>
+        <v>-42049.56461961346</v>
       </c>
       <c r="C6" t="n">
-        <v>50937.87753197473</v>
+        <v>38719.86691193427</v>
       </c>
       <c r="D6" t="n">
-        <v>50937.87753197464</v>
+        <v>38719.86691193424</v>
       </c>
       <c r="E6" t="n">
-        <v>52252.08127147461</v>
+        <v>40585.12868015001</v>
       </c>
       <c r="F6" t="n">
-        <v>-73452.06284959771</v>
+        <v>-82280.3078927663</v>
       </c>
       <c r="G6" t="n">
-        <v>-33406.50505838674</v>
+        <v>-39474.91880420547</v>
       </c>
       <c r="H6" t="n">
-        <v>151745.5842744157</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="I6" t="n">
-        <v>151745.5842744162</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="J6" t="n">
-        <v>88685.64167530939</v>
+        <v>82617.2279294903</v>
       </c>
       <c r="K6" t="n">
-        <v>151745.5842744158</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="L6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="M6" t="n">
-        <v>142988.0012792022</v>
+        <v>136919.587533383</v>
       </c>
       <c r="N6" t="n">
-        <v>102303.7124130291</v>
+        <v>96235.29866720986</v>
       </c>
       <c r="O6" t="n">
-        <v>104513.7216332894</v>
+        <v>98445.30788747029</v>
       </c>
       <c r="P6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285965</v>
       </c>
     </row>
   </sheetData>
@@ -26749,16 +26749,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435328</v>
+        <v>208.7913421435331</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26801,31 +26801,31 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652426</v>
+        <v>478.0202194652431</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244074</v>
+        <v>173.7700814244078</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735539</v>
+        <v>168.9523220735534</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628872</v>
+        <v>201.8637057628876</v>
       </c>
       <c r="G4" t="n">
-        <v>196.267053289313</v>
+        <v>196.2670532893124</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469631</v>
+        <v>35.14222482469646</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628872</v>
+        <v>201.8637057628876</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893131</v>
+        <v>196.2670532893124</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628872</v>
+        <v>201.8637057628876</v>
       </c>
       <c r="O4" t="n">
-        <v>196.267053289313</v>
+        <v>196.2670532893124</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714879</v>
+        <v>0.8393621794714894</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512377</v>
+        <v>8.596117920512393</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407457</v>
+        <v>32.35951042407463</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991826</v>
+        <v>71.23981577991839</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369464</v>
+        <v>106.7700168369466</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369469</v>
+        <v>132.4576471369472</v>
       </c>
       <c r="M14" t="n">
-        <v>147.384654296123</v>
+        <v>147.3846542961233</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885464</v>
+        <v>149.7694920885467</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164268</v>
+        <v>141.423084416427</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107244</v>
+        <v>120.7013306107246</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840171</v>
+        <v>90.64167255840186</v>
       </c>
       <c r="R14" t="n">
-        <v>52.7255845062259</v>
+        <v>52.72558450622599</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470655</v>
+        <v>19.12696566470659</v>
       </c>
       <c r="T14" t="n">
-        <v>3.67430794063644</v>
+        <v>3.674307940636447</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771902</v>
+        <v>0.06714897435771913</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728818</v>
+        <v>0.4490983585728826</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585465</v>
+        <v>4.337344673585473</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647861</v>
+        <v>15.46237769647864</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692302</v>
+        <v>42.42994623692309</v>
       </c>
       <c r="K15" t="n">
-        <v>72.5195362613061</v>
+        <v>72.51953626130623</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995841</v>
+        <v>97.51146596995858</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682253</v>
+        <v>113.7912814682255</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921637</v>
+        <v>116.8029980921639</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364172</v>
+        <v>106.8519239364174</v>
       </c>
       <c r="P15" t="n">
-        <v>85.7580891909918</v>
+        <v>85.75808919099195</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.3270115258998</v>
+        <v>57.3270115258999</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437595</v>
+        <v>27.883492824376</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526989</v>
+        <v>8.341805037527003</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791571</v>
+        <v>1.810181541791575</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295277</v>
+        <v>0.02954594464295282</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358787</v>
+        <v>0.3765089776358794</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071724</v>
+        <v>3.34750709207173</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017716</v>
+        <v>11.32265180017718</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885663</v>
+        <v>26.61918471885667</v>
       </c>
       <c r="K16" t="n">
-        <v>43.7434975835139</v>
+        <v>43.74349758351398</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779238</v>
+        <v>55.97661654779248</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886778</v>
+        <v>59.01949364886789</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495228</v>
+        <v>57.61614200495239</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438768</v>
+        <v>53.21783258438777</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061572</v>
+        <v>45.5370494406158</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367345</v>
+        <v>31.5274926636735</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806414</v>
+        <v>16.92921275806417</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527084</v>
+        <v>6.561524637527096</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171481</v>
+        <v>1.608720177171484</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559341</v>
+        <v>0.02053685332559345</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M25" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N25" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>169.9091475161415</v>
-      </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>231.6067186693945</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530574</v>
+        <v>59.29052642530587</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631305</v>
+        <v>210.8255783631307</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174101</v>
+        <v>314.3524467174104</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616828</v>
+        <v>366.551954561683</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039396</v>
+        <v>357.7033529039399</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574854</v>
+        <v>292.1250542574857</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269375</v>
+        <v>211.2670430269377</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.6509733438569</v>
+        <v>80.65097334385706</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2630025131847</v>
+        <v>199.1433342995258</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935434</v>
+        <v>329.7974314935436</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962069</v>
+        <v>270.6580542689956</v>
       </c>
       <c r="N15" t="n">
-        <v>464.8036603523839</v>
+        <v>464.8036603523841</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687023</v>
+        <v>358.1179987687025</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>270.2464504165989</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.4225251757274</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763105</v>
+        <v>21.47400575763113</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810853</v>
+        <v>83.56664180810861</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070837</v>
+        <v>98.60337061070848</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841809</v>
+        <v>101.748314384181</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842735</v>
+        <v>77.80296049842744</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550921</v>
+        <v>42.81560870550928</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770683</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713856</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355135</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M25" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N25" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M29" t="n">
         <v>485.8144648060965</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047518</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36925,7 +36925,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37402,10 +37402,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
